--- a/Team-Data/2011-12/5-16-2011-12.xlsx
+++ b/Team-Data/2011-12/5-16-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>5-16-2011-12</t>
+          <t>2012-05-16</t>
         </is>
       </c>
     </row>
